--- a/Topcoder Algorithm Practice.xlsx
+++ b/Topcoder Algorithm Practice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Problem</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>SentenceCapitalizerInator</t>
+  </si>
+  <si>
+    <t>Justifier</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,27 +491,27 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -522,10 +525,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -539,10 +542,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -556,10 +559,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -573,7 +576,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>271</v>
@@ -581,36 +584,36 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1000</v>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -624,10 +627,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -641,10 +644,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -658,10 +661,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -675,10 +678,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>480</v>
+        <v>367</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -692,10 +695,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -709,10 +712,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -726,10 +729,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -743,10 +746,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -760,23 +763,40 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>572</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>573</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
         <v>250</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E19">
+  <sortState ref="A2:E20">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Topcoder Algorithm Practice.xlsx
+++ b/Topcoder Algorithm Practice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Problem</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>Justifier</t>
+  </si>
+  <si>
+    <t>ArrayHash</t>
+  </si>
+  <si>
+    <t>StringMult</t>
+  </si>
+  <si>
+    <t>AccessLevel</t>
+  </si>
+  <si>
+    <t>SimpleWordGame</t>
+  </si>
+  <si>
+    <t>TeamSplit</t>
   </si>
 </sst>
 </file>
@@ -440,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,6 +468,7 @@
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -542,27 +558,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -576,44 +592,44 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1000</v>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -627,10 +643,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -644,44 +660,44 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>367</v>
+        <v>283</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -695,10 +711,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>480</v>
+        <v>308</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -712,10 +728,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>505</v>
+        <v>318</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -729,10 +745,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>557</v>
+        <v>340</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -746,10 +762,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>571</v>
+        <v>367</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -763,10 +779,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>572</v>
+        <v>442</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -780,23 +796,108 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>480</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>505</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>557</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>571</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>572</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B25">
         <v>573</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
         <v>250</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E20">
+  <sortState ref="A2:E25">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Topcoder Algorithm Practice.xlsx
+++ b/Topcoder Algorithm Practice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Problem</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>TeamSplit</t>
+  </si>
+  <si>
+    <t>Thimbles</t>
+  </si>
+  <si>
+    <t>SequenceOfNumbers</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,24 +666,24 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>271</v>
@@ -685,36 +691,36 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1000</v>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -728,10 +734,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -745,10 +751,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -762,10 +768,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -779,10 +785,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19">
-        <v>442</v>
+        <v>354</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -796,10 +802,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>480</v>
+        <v>367</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -813,10 +819,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>505</v>
+        <v>442</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -830,10 +836,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -847,10 +853,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>571</v>
+        <v>505</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -864,10 +870,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -881,23 +887,57 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>571</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>572</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>573</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
         <v>250</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E25">
+  <sortState ref="A2:E27">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Topcoder Algorithm Practice.xlsx
+++ b/Topcoder Algorithm Practice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Problem</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>SequenceOfNumbers</t>
+  </si>
+  <si>
+    <t>TheBlackJackDivTwo</t>
+  </si>
+  <si>
+    <t>RosePetals</t>
+  </si>
+  <si>
+    <t>EscapeFromRectangle</t>
+  </si>
+  <si>
+    <t>SpeedTyper</t>
   </si>
 </sst>
 </file>
@@ -461,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,10 +746,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -751,10 +763,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -768,10 +780,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B18">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -785,10 +797,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -802,10 +814,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -819,10 +831,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>442</v>
+        <v>340</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -836,10 +848,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -853,10 +865,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>505</v>
+        <v>367</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -870,10 +882,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>557</v>
+        <v>442</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -887,10 +899,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>571</v>
+        <v>448</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -904,10 +916,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>572</v>
+        <v>480</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -921,23 +933,91 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>505</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>557</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>571</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>572</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="B27">
+      <c r="B31">
         <v>573</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
         <v>250</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E27">
+  <sortState ref="A2:E31">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Topcoder Algorithm Practice.xlsx
+++ b/Topcoder Algorithm Practice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Problem</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>SpeedTyper</t>
+  </si>
+  <si>
+    <t>MassiveNumbers</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -644,10 +647,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -661,10 +664,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -678,10 +681,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -695,24 +698,24 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>271</v>
@@ -720,36 +723,36 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1000</v>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -763,10 +766,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -780,10 +783,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -797,10 +800,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -814,10 +817,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B20">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -831,10 +834,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -848,10 +851,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -865,10 +868,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -882,10 +885,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>442</v>
+        <v>367</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -899,10 +902,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -916,10 +919,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -933,10 +936,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -950,10 +953,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -967,10 +970,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -984,10 +987,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1001,23 +1004,40 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>572</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>573</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
         <v>250</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E31">
+  <sortState ref="A2:E32">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Topcoder Algorithm Practice.xlsx
+++ b/Topcoder Algorithm Practice.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Problem</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>MassiveNumbers</t>
+  </si>
+  <si>
+    <t>HiddedMessage</t>
   </si>
 </sst>
 </file>
@@ -185,6 +188,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -232,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,7 +273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,23 +482,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -526,7 +532,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -543,7 +549,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -560,7 +566,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -577,7 +583,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -594,7 +600,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -611,7 +617,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -628,7 +634,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -645,7 +651,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -662,7 +668,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -679,7 +685,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -696,7 +702,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -713,7 +719,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -730,7 +736,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -747,7 +753,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -764,7 +770,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -781,7 +787,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -798,7 +804,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -815,7 +821,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -832,7 +838,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -849,7 +855,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -866,7 +872,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -883,7 +889,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -900,7 +906,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -917,7 +923,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -934,7 +940,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -951,7 +957,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -968,7 +974,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -985,7 +991,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1033,6 +1039,23 @@
         <v>1</v>
       </c>
       <c r="E32" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>316</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
         <v>250</v>
       </c>
     </row>
@@ -1050,7 +1073,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1062,7 +1085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Topcoder Algorithm Practice.xlsx
+++ b/Topcoder Algorithm Practice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Problem</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>HiddedMessage</t>
+  </si>
+  <si>
+    <t>LevelUp</t>
+  </si>
+  <si>
+    <t>StringCompare</t>
+  </si>
+  <si>
+    <t>TitleString</t>
   </si>
 </sst>
 </file>
@@ -482,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,27 +560,27 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -585,78 +594,78 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -670,27 +679,27 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -704,10 +713,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -721,44 +730,44 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -772,44 +781,44 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -823,10 +832,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -840,10 +849,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -857,10 +866,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -874,10 +883,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -891,10 +900,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -908,10 +917,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>442</v>
+        <v>318</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -925,10 +934,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>448</v>
+        <v>340</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -942,10 +951,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -959,10 +968,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>505</v>
+        <v>367</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -976,10 +985,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>557</v>
+        <v>442</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -993,10 +1002,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>571</v>
+        <v>448</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1010,10 +1019,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>572</v>
+        <v>480</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1027,10 +1036,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>573</v>
+        <v>505</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1044,10 +1053,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B33">
-        <v>316</v>
+        <v>557</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1059,8 +1068,59 @@
         <v>250</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>571</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>572</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>573</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:E32">
+  <sortState ref="A2:E36">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Topcoder Algorithm Practice.xlsx
+++ b/Topcoder Algorithm Practice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Problem</t>
   </si>
@@ -136,6 +136,27 @@
   </si>
   <si>
     <t>TitleString</t>
+  </si>
+  <si>
+    <t>MagicSpell</t>
+  </si>
+  <si>
+    <t>VerifyCreditCard</t>
+  </si>
+  <si>
+    <t>RPG</t>
+  </si>
+  <si>
+    <t>ValueAddedTax</t>
+  </si>
+  <si>
+    <t>AimToTen</t>
+  </si>
+  <si>
+    <t>MinimalTriangle</t>
+  </si>
+  <si>
+    <t>UserName</t>
   </si>
 </sst>
 </file>
@@ -491,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,27 +598,27 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -611,61 +632,61 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B10">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -679,27 +700,27 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -713,27 +734,27 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -747,10 +768,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B15">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -764,10 +785,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -781,78 +802,78 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B21">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -866,10 +887,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -883,10 +904,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -900,10 +921,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -917,10 +938,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -934,10 +955,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -951,10 +972,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -968,10 +989,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -985,10 +1006,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B29">
-        <v>442</v>
+        <v>335</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1002,10 +1023,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>448</v>
+        <v>340</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1019,10 +1040,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1036,10 +1057,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>505</v>
+        <v>367</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1053,10 +1074,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>557</v>
+        <v>396</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1070,10 +1091,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>571</v>
+        <v>424</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1087,10 +1108,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>572</v>
+        <v>442</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1104,26 +1125,146 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>448</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>480</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>505</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>547</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>557</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>571</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>572</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>19</v>
       </c>
-      <c r="B36">
+      <c r="B43">
         <v>573</v>
       </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
         <v>250</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E36">
+  <sortState ref="A2:E43">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Topcoder Algorithm Practice.xlsx
+++ b/Topcoder Algorithm Practice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Problem</t>
   </si>
@@ -157,6 +157,36 @@
   </si>
   <si>
     <t>UserName</t>
+  </si>
+  <si>
+    <t>MagicalGirlLevelOneDivTwo</t>
+  </si>
+  <si>
+    <t>grafixClick</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>CityMap</t>
+  </si>
+  <si>
+    <t>RussianSpeedLimit</t>
+  </si>
+  <si>
+    <t>TextStatistics</t>
+  </si>
+  <si>
+    <t>NinjaTurtles</t>
+  </si>
+  <si>
+    <t>BinaryPolynomialDivTwo</t>
+  </si>
+  <si>
+    <t>TournamentJudging</t>
+  </si>
+  <si>
+    <t>WorkingRabbits</t>
   </si>
 </sst>
 </file>
@@ -512,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,10 +730,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -717,10 +747,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -734,27 +764,27 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B13">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>250</v>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -768,27 +798,27 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B16">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -802,10 +832,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B17">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -819,10 +849,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -836,78 +866,78 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B23">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -921,10 +951,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -938,10 +968,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -955,10 +985,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -972,10 +1002,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -989,10 +1019,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1006,10 +1036,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1023,10 +1053,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1040,10 +1070,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B31">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1057,10 +1087,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B32">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1074,10 +1104,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1091,10 +1121,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>424</v>
+        <v>354</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1108,10 +1138,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>442</v>
+        <v>367</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1125,10 +1155,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B36">
-        <v>448</v>
+        <v>385</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1142,10 +1172,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>480</v>
+        <v>396</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1159,10 +1189,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B38">
-        <v>505</v>
+        <v>408</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1176,10 +1206,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>547</v>
+        <v>424</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1193,10 +1223,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>557</v>
+        <v>442</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -1210,10 +1240,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B41">
-        <v>571</v>
+        <v>448</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -1227,10 +1257,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B42">
-        <v>572</v>
+        <v>480</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1244,23 +1274,193 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>505</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>514</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>536</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>542</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>547</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>557</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>567</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>571</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>572</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>19</v>
       </c>
-      <c r="B43">
+      <c r="B52">
         <v>573</v>
       </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>574</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
         <v>250</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E43">
+  <sortState ref="A2:E53">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Topcoder Algorithm Practice.xlsx
+++ b/Topcoder Algorithm Practice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Problem</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>WorkingRabbits</t>
+  </si>
+  <si>
+    <t>ErasingCharacters</t>
+  </si>
+  <si>
+    <t>MiniatureDachshund</t>
+  </si>
+  <si>
+    <t>FoxAndHandleEasy</t>
   </si>
 </sst>
 </file>
@@ -542,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,10 +1385,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1393,10 +1402,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -1410,10 +1419,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -1427,10 +1436,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -1444,23 +1453,74 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>573</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>574</v>
       </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>598</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>599</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
         <v>250</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E53">
+  <sortState ref="A2:E56">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Topcoder Algorithm Practice.xlsx
+++ b/Topcoder Algorithm Practice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Problem</t>
   </si>
@@ -196,6 +196,24 @@
   </si>
   <si>
     <t>FoxAndHandleEasy</t>
+  </si>
+  <si>
+    <t>KeyDungeonDiv2</t>
+  </si>
+  <si>
+    <t>InsertZ</t>
+  </si>
+  <si>
+    <t>TypoCoderDiv2</t>
+  </si>
+  <si>
+    <t>MiddleCode</t>
+  </si>
+  <si>
+    <t>AlienAndPassword</t>
+  </si>
+  <si>
+    <t>BoundingBox</t>
   </si>
 </sst>
 </file>
@@ -551,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,10 +1505,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1504,23 +1522,125 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>588</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>598</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B56">
+      <c r="B58">
         <v>599</v>
       </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3">
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>602</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>603</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>605</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>607</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
         <v>250</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E56">
+  <sortState ref="A2:E62">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
